--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.4788453110932</v>
+        <v>2.29025</v>
       </c>
       <c r="H2">
-        <v>1.4788453110932</v>
+        <v>6.870749999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N2">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q2">
-        <v>5.947316657482119</v>
+        <v>9.542214402749998</v>
       </c>
       <c r="R2">
-        <v>5.947316657482119</v>
+        <v>85.87992962474999</v>
       </c>
       <c r="S2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="T2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.4788453110932</v>
+        <v>2.29025</v>
       </c>
       <c r="H3">
-        <v>1.4788453110932</v>
+        <v>6.870749999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N3">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q3">
-        <v>0.9528219508620637</v>
+        <v>1.5243583365</v>
       </c>
       <c r="R3">
-        <v>0.9528219508620637</v>
+        <v>13.7192250285</v>
       </c>
       <c r="S3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="T3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.4788453110932</v>
+        <v>2.29025</v>
       </c>
       <c r="H4">
-        <v>1.4788453110932</v>
+        <v>6.870749999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N4">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q4">
-        <v>1.179334828677536</v>
+        <v>2.3223364025</v>
       </c>
       <c r="R4">
-        <v>1.179334828677536</v>
+        <v>20.9010276225</v>
       </c>
       <c r="S4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="T4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
     </row>
   </sheetData>
